--- a/docs/03_strategies/DCA_Conditional_Buy_LR_with_TrailingStop/Range/Binance_BTC-USDT_1d/trades.xlsx
+++ b/docs/03_strategies/DCA_Conditional_Buy_LR_with_TrailingStop/Range/Binance_BTC-USDT_1d/trades.xlsx
@@ -406,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -446,71 +446,71 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>78509</v>
+        <v>49068</v>
       </c>
       <c r="B2">
         <v>20</v>
       </c>
       <c r="C2">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <v>0.02019601584</v>
       </c>
       <c r="E2">
-        <v>0.02202374870562326</v>
+        <v>0.02105258878195004</v>
       </c>
       <c r="F2">
-        <v>143.4934795472167</v>
+        <v>42.0303211156045</v>
       </c>
       <c r="G2">
-        <v>0.09049967479245469</v>
+        <v>0.04241296643536585</v>
       </c>
       <c r="H2" s="2">
         <v>44748</v>
       </c>
       <c r="I2" s="2">
-        <v>44767</v>
+        <v>44752</v>
       </c>
       <c r="J2" s="3">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>68423</v>
+        <v>42313</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C3">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3">
-        <v>0.02317447132</v>
+        <v>0.02342187848</v>
       </c>
       <c r="E3">
-        <v>0.02377367110539988</v>
+        <v>0.02419069819893193</v>
       </c>
       <c r="F3">
-        <v>40.9990469164159</v>
+        <v>32.53106876716668</v>
       </c>
       <c r="G3">
-        <v>0.02585602826170019</v>
+        <v>0.03282485303595206</v>
       </c>
       <c r="H3" s="2">
-        <v>44783</v>
+        <v>44762</v>
       </c>
       <c r="I3" s="2">
-        <v>44788</v>
+        <v>44787</v>
       </c>
       <c r="J3" s="3">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>78518</v>
+        <v>49074</v>
       </c>
       <c r="B4">
         <v>90</v>
@@ -522,13 +522,13 @@
         <v>0.02019379362</v>
       </c>
       <c r="E4">
-        <v>0.0206188891387267</v>
+        <v>0.0208499967650379</v>
       </c>
       <c r="F4">
-        <v>33.3776499393831</v>
+        <v>32.20251313958988</v>
       </c>
       <c r="G4">
-        <v>0.02105080039570595</v>
+        <v>0.03249528827451198</v>
       </c>
       <c r="H4" s="2">
         <v>44818</v>
@@ -542,98 +542,162 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>93724</v>
+        <v>57932</v>
       </c>
       <c r="B5">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="C5">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="D5">
-        <v>0.01691747057</v>
+        <v>0.01710604896</v>
       </c>
       <c r="E5">
-        <v>0.0172637006208997</v>
+        <v>0.02114152160714397</v>
       </c>
       <c r="F5">
-        <v>32.45006529052321</v>
+        <v>233.7830013943446</v>
       </c>
       <c r="G5">
-        <v>0.02046582847400802</v>
+        <v>0.2359091018960799</v>
       </c>
       <c r="H5" s="2">
-        <v>44881</v>
+        <v>44902</v>
       </c>
       <c r="I5" s="2">
-        <v>44911</v>
+        <v>44943</v>
       </c>
       <c r="J5" s="3">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>94991</v>
+        <v>46842</v>
       </c>
       <c r="B6">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="C6">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D6">
-        <v>0.01669232565</v>
+        <v>0.02115342229</v>
       </c>
       <c r="E6">
-        <v>0.02336307196196672</v>
+        <v>0.02287997481358652</v>
       </c>
       <c r="F6">
-        <v>633.6608629200308</v>
+        <v>80.87517330983997</v>
       </c>
       <c r="G6">
-        <v>0.3996295334656812</v>
+        <v>0.08162048201546712</v>
       </c>
       <c r="H6" s="2">
-        <v>44930</v>
+        <v>44944</v>
       </c>
       <c r="I6" s="2">
-        <v>44956</v>
+        <v>44950</v>
       </c>
       <c r="J6" s="3">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>68496</v>
+        <v>43741</v>
       </c>
       <c r="B7">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C7">
+        <v>232</v>
+      </c>
+      <c r="D7">
+        <v>0.02265457194</v>
+      </c>
+      <c r="E7">
+        <v>0.02324124188836351</v>
+      </c>
+      <c r="F7">
+        <v>25.66153021136832</v>
+      </c>
+      <c r="G7">
+        <v>0.0258963157598957</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44951</v>
+      </c>
+      <c r="I7" s="2">
+        <v>44960</v>
+      </c>
+      <c r="J7" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>44594</v>
+      </c>
+      <c r="B8">
+        <v>244</v>
+      </c>
+      <c r="C8">
+        <v>249</v>
+      </c>
+      <c r="D8">
+        <v>0.02222203984</v>
+      </c>
+      <c r="E8">
+        <v>0.02408751406772674</v>
+      </c>
+      <c r="F8">
+        <v>83.18895771124652</v>
+      </c>
+      <c r="G8">
+        <v>0.08394702921776176</v>
+      </c>
+      <c r="H8" s="2">
+        <v>44972</v>
+      </c>
+      <c r="I8" s="2">
+        <v>44977</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>40487</v>
+      </c>
+      <c r="B9">
+        <v>251</v>
+      </c>
+      <c r="C9">
         <v>267</v>
       </c>
-      <c r="D7">
-        <v>0.02314825513</v>
-      </c>
-      <c r="E7">
+      <c r="D9">
+        <v>0.02447512067</v>
+      </c>
+      <c r="E9">
         <v>0.02036221</v>
       </c>
-      <c r="F7">
-        <v>-190.8329472244799</v>
-      </c>
-      <c r="G7">
-        <v>-0.1203565933740423</v>
-      </c>
-      <c r="H7" s="2">
-        <v>44958</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="F9">
+        <v>-166.5194142962899</v>
+      </c>
+      <c r="G9">
+        <v>-0.1680445512589989</v>
+      </c>
+      <c r="H9" s="2">
+        <v>44979</v>
+      </c>
+      <c r="I9" s="2">
         <v>44995</v>
       </c>
-      <c r="J7" s="3">
-        <v>37</v>
+      <c r="J9" s="3">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
